--- a/outputs/autoaprop.xlsx/autoapropxlsx/IQ_DOC3.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/IQ_DOC3.XLSX
@@ -139,7 +139,7 @@
     <t>SYLVIO F. OLIVIER</t>
   </si>
   <si>
-    <t>SÉRGIO AFONSO DIAS</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -157,7 +157,7 @@
     <t>946</t>
   </si>
   <si>
-    <t>1725</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>SÉRGIO AFONSO DIAS</v>
+        <v> </v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>SÉRGIO AFONSO DIAS</v>
+        <v> </v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>SÉRGIO AFONSO DIAS</v>
+        <v> </v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>SÉRGIO AFONSO DIAS</v>
+        <v> </v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>1725</v>
+        <v> </v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>1725</v>
+        <v> </v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>1725</v>
+        <v> </v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>1725</v>
+        <v> </v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>SÉRGIO AFONSO DIAS</v>
+        <v> </v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>SÉRGIO AFONSO DIAS</v>
+        <v> </v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>1725</v>
+        <v> </v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>1725</v>
+        <v> </v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
